--- a/0. 실습/melon_chart_data.xlsx
+++ b/0. 실습/melon_chart_data.xlsx
@@ -501,12 +501,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seven (feat. Latto) - Clean Ver.</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Seven (feat. Latto) - Clean Ver.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>Smoke (Prod. Dynamicduo, Padi)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>다이나믹 듀오</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Smoke (Prod. Dynamicduo, Padi)</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>다이나믹 듀오</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>Super Shy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Super Shy</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>이제 나만 믿어요</t>
+          <t>ETA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>이제 나만 믿어요</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ETA</t>
+          <t>음악의 신</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>London Boy</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Polaroid</t>
+          <t>London Boy</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>아버지</t>
+          <t>Polaroid</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>음악의 신</t>
+          <t>Fast Forward</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>전소미</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>인생찬가</t>
+          <t>아버지</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -876,12 +876,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fast Forward</t>
+          <t>Get A Guitar</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>전소미</t>
+          <t>RIIZE</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A bientot</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Get A Guitar</t>
+          <t>Chill Kill</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>Red Velvet (레드벨벳)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chill Kill</t>
+          <t>A bientot</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Red Velvet (레드벨벳)</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>I Love My Body</t>
+          <t>Off The Record</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>화사 (HWASA)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>연애편지</t>
+          <t>I Love My Body</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>화사 (HWASA)</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Off The Record</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>범진</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>잠시라도 우리</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>잠시라도 우리</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>연애편지</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3D (feat. Jack Harlow)</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>3D (feat. Jack Harlow)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Spicy</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dynamite</t>
+          <t>Spicy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>Dynamite</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Yes or No</t>
+          <t>Steal The Show (From “엘리멘탈”)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>Lauv</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Steal The Show (From “엘리멘탈”)</t>
+          <t>첫 눈</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lauv</t>
+          <t>EXO</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>멜로망스</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>멜로망스</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>I Don't Think That I Like Her</t>
+          <t>손오공</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>봄날</t>
+          <t>Yes or No</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>손오공</t>
+          <t>I Don't Think That I Like Her</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>물론</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>허각</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>물론</t>
+          <t>봄날</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>허각</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>취중고백</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>김민석 (멜로망스)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Butter</t>
+          <t>취중고백</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>김민석 (멜로망스)</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>방탄소년단</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hate You</t>
+          <t>심(心)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>DK(디셈버)</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>심(心)</t>
+          <t>파이팅 해야지 (Feat. 이영지)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DK(디셈버)</t>
+          <t>부석순 (SEVENTEEN)</t>
         </is>
       </c>
     </row>
@@ -1476,12 +1476,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>파이팅 해야지 (Feat. 이영지)</t>
+          <t>Dangerously</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1491,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dangerously</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>Hate You</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>나에게 그대만이</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>경서예지</t>
+          <t>탑현</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1566,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>나에게 그대만이</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>탑현</t>
+          <t>경서예지</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Summer (Feat. BE’O (비오))</t>
+          <t>밤, 바다</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Paul Blanco</t>
+          <t>최유리</t>
         </is>
       </c>
     </row>
@@ -1596,12 +1596,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Still With You</t>
+          <t>Summer (Feat. BE’O (비오))</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>Paul Blanco</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>밤, 바다</t>
+          <t>Still With You</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>최유리</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>STAY</t>
+          <t>이쁜 여자가 좋더라 (Feat. Gist, Jayci yucca)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>The Kid LAROI</t>
+          <t>릴러말즈 (Leellamarz)</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1656,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>이쁜 여자가 좋더라 (Feat. Gist, Jayci yucca)</t>
+          <t>STAY</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>릴러말즈 (Leellamarz)</t>
+          <t>The Kid LAROI</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>사랑..그게 뭔데</t>
+          <t>지극히 사적인 얘기</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>지아</t>
+          <t>다비치</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>그중에 그대를 만나</t>
+          <t>사랑..그게 뭔데</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>지아</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>지극히 사적인 얘기</t>
+          <t>꽃</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>다비치</t>
+          <t>지수 (JISOO)</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>꽃</t>
+          <t>All I Want for Christmas Is You</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>지수 (JISOO)</t>
+          <t>Mariah Carey</t>
         </is>
       </c>
     </row>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>폼미쳤다</t>
+          <t>KIDDING</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>영탁</t>
+          <t>이세계아이돌</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KIDDING</t>
+          <t>그중에 그대를 만나</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>이세계아이돌</t>
+          <t>김호중</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>All I Want for Christmas Is You</t>
+          <t>GODS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mariah Carey</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>New Jeans</t>
+          <t>폼미쳤다</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>영탁</t>
         </is>
       </c>
     </row>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>사실말야내가말야그게그러니까말이야</t>
+          <t>New Jeans</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>케이시 (Kassy)</t>
+          <t>NewJeans</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CRUSH (가시)</t>
+          <t>사실말야내가말야그게그러니까말이야</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ZEROBASEONE (제로베이스원)</t>
+          <t>케이시 (Kassy)</t>
         </is>
       </c>
     </row>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Too Sad to Dance</t>
+          <t>CRUSH (가시)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>ZEROBASEONE (제로베이스원)</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GODS</t>
+          <t>Teddy Bear</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>STAYC(스테이씨)</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1896,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Teddy Bear</t>
+          <t>Too Sad to Dance</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>STAYC(스테이씨)</t>
+          <t>정국</t>
         </is>
       </c>
     </row>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Please Don't Change (feat. DJ Snake)</t>
+          <t>Snowman</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>Sia</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Shot Glass of Tears</t>
+          <t>Please Don't Change (feat. DJ Snake)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -1941,12 +1941,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Closer to You (feat. Major Lazer)</t>
+          <t>Santa Tell Me</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>Ariana Grande</t>
         </is>
       </c>
     </row>
